--- a/qa/【SQA质量月报】嵌入式软件部202010.xlsx
+++ b/qa/【SQA质量月报】嵌入式软件部202010.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>维度</t>
   </si>
@@ -131,12 +131,6 @@
     <t>总遗留需求数</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>56.03%</t>
   </si>
   <si>
@@ -146,163 +140,20 @@
     <t>49.50%</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-88.86</t>
-  </si>
-  <si>
-    <t>-1561.43</t>
-  </si>
-  <si>
-    <t>-304.65</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>162(46/116)</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>53.12%</t>
-  </si>
-  <si>
-    <t>59.07%</t>
-  </si>
-  <si>
-    <t>49.62%</t>
-  </si>
-  <si>
-    <t>-6.48</t>
-  </si>
-  <si>
-    <t>-391.70</t>
-  </si>
-  <si>
-    <t>-412.39</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>152(46/106)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="#,#0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1077,7 +928,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,140 +971,50 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1697,60 +1458,44 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s" s="49">
-        <v>37</v>
-      </c>
+      <c r="C2" s="14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s" s="49">
-        <v>32</v>
-      </c>
+      <c r="C3" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="49">
-        <v>32</v>
-      </c>
+      <c r="C4" s="14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s" s="49">
-        <v>69</v>
-      </c>
+      <c r="C5" s="14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A6" s="3" t="s">
@@ -1759,300 +1504,220 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s" s="30">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s" s="44">
-        <v>60</v>
-      </c>
+      <c r="C6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="30">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s" s="44">
-        <v>32</v>
-      </c>
+      <c r="C7" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s" s="30">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="44">
-        <v>61</v>
-      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="30">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s" s="44">
-        <v>62</v>
-      </c>
+      <c r="C9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s" s="50">
-        <v>70</v>
-      </c>
+      <c r="C10" s="16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s" s="16">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="31">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s" s="50">
-        <v>32</v>
-      </c>
+      <c r="C11" s="16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s" s="31">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="50">
-        <v>71</v>
-      </c>
+      <c r="C12" s="16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s" s="16">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s" s="31">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s" s="50">
-        <v>72</v>
-      </c>
+      <c r="C13" s="16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s" s="32">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s" s="45">
-        <v>63</v>
-      </c>
+      <c r="C14" s="17" t="n">
+        <v>-88.86</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="32">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s" s="45">
-        <v>32</v>
-      </c>
+      <c r="C15" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s" s="32">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s" s="45">
-        <v>64</v>
-      </c>
+      <c r="C16" s="17" t="n">
+        <v>-1561.43</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s" s="32">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s" s="45">
-        <v>65</v>
-      </c>
+      <c r="C17" s="17" t="n">
+        <v>-304.65</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="51">
-        <v>73</v>
-      </c>
+      <c r="C18" s="18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s" s="18">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s" s="33">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s" s="51">
-        <v>32</v>
-      </c>
+      <c r="C19" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s" s="18">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s" s="33">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s" s="51">
-        <v>54</v>
-      </c>
+      <c r="C20" s="18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s" s="18">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s" s="33">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s" s="51">
-        <v>74</v>
-      </c>
+      <c r="C21" s="18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s" s="34">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s" s="46">
-        <v>66</v>
-      </c>
+      <c r="C22" s="19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s" s="34">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s" s="46">
-        <v>43</v>
-      </c>
+      <c r="C23" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s" s="34">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s" s="46">
-        <v>67</v>
-      </c>
+      <c r="C24" s="19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s" s="34">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s" s="46">
-        <v>68</v>
-      </c>
+      <c r="C25" s="19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A26" s="8" t="s">
@@ -2133,300 +1798,220 @@
       <c r="B30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s" s="35">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s" s="52">
-        <v>37</v>
-      </c>
+      <c r="C30" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s" s="35">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s" s="52">
-        <v>32</v>
-      </c>
+      <c r="C31" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A32" s="8"/>
       <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s" s="35">
-        <v>31</v>
-      </c>
-      <c r="E32" t="s" s="52">
-        <v>47</v>
-      </c>
+      <c r="C32" s="20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s" s="35">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s" s="52">
-        <v>31</v>
-      </c>
+      <c r="C33" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s" s="53">
-        <v>32</v>
-      </c>
+      <c r="C34" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A35" s="8"/>
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s" s="53">
-        <v>32</v>
-      </c>
+      <c r="C35" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C36" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s" s="53">
-        <v>32</v>
-      </c>
+      <c r="C36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s" s="53">
-        <v>32</v>
-      </c>
+      <c r="C37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s" s="22">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s" s="37">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s" s="54">
-        <v>75</v>
-      </c>
+      <c r="C38" s="22" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s" s="22">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="E39" t="s" s="54">
-        <v>54</v>
-      </c>
+      <c r="C39" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s" s="22">
-        <v>47</v>
-      </c>
-      <c r="D40" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="E40" t="s" s="54">
-        <v>76</v>
-      </c>
+      <c r="C40" s="22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C41" t="s" s="22">
-        <v>48</v>
-      </c>
-      <c r="D41" t="s" s="37">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s" s="54">
-        <v>77</v>
-      </c>
+      <c r="C41" s="22" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="24" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s" s="23">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s" s="38">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s" s="47">
-        <v>49</v>
-      </c>
+      <c r="C42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C43" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s" s="38">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s" s="47">
-        <v>32</v>
-      </c>
+      <c r="C43" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s" s="23">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s" s="38">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s" s="47">
-        <v>50</v>
-      </c>
+      <c r="C44" s="23" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A45" s="8"/>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="D45" t="s" s="38">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s" s="47">
-        <v>51</v>
-      </c>
+      <c r="C45" s="23" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C46" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s" s="39">
-        <v>31</v>
-      </c>
-      <c r="E46" t="s" s="55">
-        <v>38</v>
-      </c>
+      <c r="C46" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A47" s="8"/>
       <c r="B47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s" s="39">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s" s="55">
-        <v>32</v>
-      </c>
+      <c r="C47" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A48" s="8"/>
       <c r="B48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s" s="39">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s" s="55">
-        <v>32</v>
-      </c>
+      <c r="C48" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C49" t="s" s="24">
-        <v>31</v>
-      </c>
-      <c r="D49" t="s" s="39">
-        <v>31</v>
-      </c>
-      <c r="E49" t="s" s="55">
-        <v>54</v>
-      </c>
+      <c r="C49" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A50" s="8" t="s">
@@ -2579,180 +2164,132 @@
       <c r="B58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C58" t="s" s="26">
-        <v>55</v>
-      </c>
-      <c r="D58" t="s" s="41">
-        <v>55</v>
-      </c>
-      <c r="E58" t="s" s="57">
-        <v>80</v>
-      </c>
+      <c r="C58" s="26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="s" s="26">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s" s="41">
-        <v>31</v>
-      </c>
-      <c r="E59" t="s" s="57">
-        <v>47</v>
-      </c>
+      <c r="C59" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s" s="41">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s" s="57">
-        <v>81</v>
-      </c>
+      <c r="C60" s="26" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C61" t="s" s="26">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s" s="41">
-        <v>36</v>
-      </c>
-      <c r="E61" t="s" s="57">
-        <v>82</v>
-      </c>
+      <c r="C61" s="26" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A62" s="8"/>
       <c r="B62" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="s" s="27">
-        <v>57</v>
-      </c>
-      <c r="D62" t="s" s="42">
-        <v>57</v>
-      </c>
-      <c r="E62" t="s" s="58">
-        <v>83</v>
-      </c>
+      <c r="C62" s="27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A63" s="8"/>
       <c r="B63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C63" t="s" s="27">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s" s="42">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s" s="58">
-        <v>32</v>
-      </c>
+      <c r="C63" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A64" s="8"/>
       <c r="B64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s" s="27">
-        <v>53</v>
-      </c>
-      <c r="D64" t="s" s="42">
-        <v>53</v>
-      </c>
-      <c r="E64" t="s" s="58">
-        <v>84</v>
-      </c>
+      <c r="C64" s="27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A65" s="8"/>
       <c r="B65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C65" t="s" s="27">
-        <v>53</v>
-      </c>
-      <c r="D65" t="s" s="42">
-        <v>53</v>
-      </c>
-      <c r="E65" t="s" s="58">
-        <v>48</v>
-      </c>
+      <c r="C65" s="27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A66" s="8"/>
       <c r="B66" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C66" t="s" s="25">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s" s="40">
-        <v>52</v>
-      </c>
-      <c r="E66" t="s" s="56">
-        <v>78</v>
-      </c>
+      <c r="C66" s="25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A67" s="8"/>
       <c r="B67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C67" t="s" s="25">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s" s="40">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s" s="56">
-        <v>32</v>
-      </c>
+      <c r="C67" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A68" s="8"/>
       <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s" s="25">
-        <v>53</v>
-      </c>
-      <c r="D68" t="s" s="40">
-        <v>53</v>
-      </c>
-      <c r="E68" t="s" s="56">
-        <v>74</v>
-      </c>
+      <c r="C68" s="25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A69" s="8"/>
       <c r="B69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C69" t="s" s="25">
-        <v>54</v>
-      </c>
-      <c r="D69" t="s" s="40">
-        <v>54</v>
-      </c>
-      <c r="E69" t="s" s="56">
-        <v>79</v>
-      </c>
+      <c r="C69" s="25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:5">
       <c r="A70" s="8"/>
@@ -2831,60 +2368,44 @@
       <c r="B74" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C74" t="s" s="28">
-        <v>58</v>
-      </c>
-      <c r="D74" t="s" s="43">
-        <v>58</v>
-      </c>
-      <c r="E74" t="s" s="48">
-        <v>58</v>
-      </c>
+      <c r="C74" s="28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A75" s="8"/>
       <c r="B75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C75" t="s" s="28">
-        <v>32</v>
-      </c>
-      <c r="D75" t="s" s="43">
-        <v>32</v>
-      </c>
-      <c r="E75" t="s" s="48">
-        <v>32</v>
-      </c>
+      <c r="C75" s="28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C76" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="D76" t="s" s="43">
-        <v>54</v>
-      </c>
-      <c r="E76" t="s" s="48">
-        <v>54</v>
-      </c>
+      <c r="C76" s="28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="16.5" customHeight="1" outlineLevel="2" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C77" t="s" s="28">
-        <v>59</v>
-      </c>
-      <c r="D77" t="s" s="43">
-        <v>59</v>
-      </c>
-      <c r="E77" t="s" s="48">
-        <v>59</v>
-      </c>
+      <c r="C77" s="28" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
